--- a/data/trans_orig/Q23_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74FFB948-B05A-427A-9119-DFE25AD632C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7867ACD9-4D22-4F0C-B381-BCAB577F0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D1DC68E-B897-4E29-BEDD-CCDE41B78A40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB862EBD-B75E-49BB-9D1C-534CC1AA608F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
   <si>
     <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -75,433 +75,439 @@
     <t>47,61%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
     <t>71,76%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>66,68%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA2E459-B617-4D2D-B906-DF1A19A1B89E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9F1ABA-30D3-459E-B0B1-E139AE815ED2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1664,7 +1670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3AE4CA-6EF2-495D-9574-823FF3BF4B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D248DDA-65AB-4550-80C8-A07C69DA7419}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1809,7 +1815,7 @@
         <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>386</v>
@@ -1818,13 +1824,13 @@
         <v>406010</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,10 +1863,10 @@
         <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -1869,10 +1875,10 @@
         <v>557401</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>104</v>
@@ -1958,13 +1964,13 @@
         <v>251332</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>611</v>
@@ -1973,13 +1979,13 @@
         <v>655244</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,13 +2015,13 @@
         <v>607387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>1277</v>
@@ -2024,10 +2030,10 @@
         <v>1381952</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>120</v>
@@ -2256,10 +2262,10 @@
         <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>344</v>
@@ -2268,13 +2274,13 @@
         <v>376424</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>1072</v>
@@ -2283,13 +2289,13 @@
         <v>1151020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>1347106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>881</v>
@@ -2319,13 +2325,13 @@
         <v>956652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2128</v>
@@ -2334,13 +2340,13 @@
         <v>2303758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q23_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R2-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7867ACD9-4D22-4F0C-B381-BCAB577F0AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76603BD9-B00F-4D64-9C20-8C4B81410D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB862EBD-B75E-49BB-9D1C-534CC1AA608F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98305751-F5A3-448A-9D8B-99F6A84ADA5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="157">
-  <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -303,7 +305,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
+    <t>Población la edad de comienzo de consumo de tabaco en 2012 (Tasa respuesta: 49,24%)</t>
   </si>
   <si>
     <t>46,04%</t>
@@ -508,6 +510,432 @@
   </si>
   <si>
     <t>68,28%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>Población la edad de comienzo de consumo de tabaco en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9F1ABA-30D3-459E-B0B1-E139AE815ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B10309C-EAF9-45E5-9762-368024089BC2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1431,7 +1859,7 @@
         <v>332</v>
       </c>
       <c r="N11" s="7">
-        <v>345062</v>
+        <v>345061</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1482,7 +1910,7 @@
         <v>404</v>
       </c>
       <c r="N12" s="7">
-        <v>420696</v>
+        <v>420695</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1505,7 +1933,7 @@
         <v>632</v>
       </c>
       <c r="D13" s="7">
-        <v>641679</v>
+        <v>641678</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1607,7 +2035,7 @@
         <v>1754</v>
       </c>
       <c r="D15" s="7">
-        <v>1789652</v>
+        <v>1789651</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1670,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D248DDA-65AB-4550-80C8-A07C69DA7419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE21DF4-7F0C-414F-B75A-7C8BD9ACABEF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2337,7 +2765,7 @@
         <v>2128</v>
       </c>
       <c r="N14" s="7">
-        <v>2303758</v>
+        <v>2303759</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>154</v>
@@ -2388,7 +2816,1509 @@
         <v>3200</v>
       </c>
       <c r="N15" s="7">
-        <v>3454778</v>
+        <v>3454779</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874A2747-7A6D-4E34-B758-B94092265C64}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23317</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5857</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29174</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16703</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2329</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="7">
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19032</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40020</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8186</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7">
+        <v>48206</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7">
+        <v>66667</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
+        <v>19</v>
+      </c>
+      <c r="I7" s="7">
+        <v>19484</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="7">
+        <v>82</v>
+      </c>
+      <c r="N7" s="7">
+        <v>86151</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7">
+        <v>58654</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
+        <v>23</v>
+      </c>
+      <c r="I8" s="7">
+        <v>23084</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M8" s="7">
+        <v>78</v>
+      </c>
+      <c r="N8" s="7">
+        <v>81738</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>118</v>
+      </c>
+      <c r="D9" s="7">
+        <v>125321</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>42</v>
+      </c>
+      <c r="I9" s="7">
+        <v>42568</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>160</v>
+      </c>
+      <c r="N9" s="7">
+        <v>167889</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8946</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6557</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="7">
+        <v>14</v>
+      </c>
+      <c r="N10" s="7">
+        <v>15503</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20247</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7">
+        <v>12695</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="7">
+        <v>31</v>
+      </c>
+      <c r="N11" s="7">
+        <v>32942</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29193</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <v>19252</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>45</v>
+      </c>
+      <c r="N12" s="7">
+        <v>48445</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>93</v>
+      </c>
+      <c r="D13" s="7">
+        <v>98930</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>31898</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="7">
+        <v>124</v>
+      </c>
+      <c r="N13" s="7">
+        <v>130828</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>90</v>
+      </c>
+      <c r="D14" s="7">
+        <v>95604</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="7">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>38107</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M14" s="7">
+        <v>128</v>
+      </c>
+      <c r="N14" s="7">
+        <v>133712</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194534</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>69</v>
+      </c>
+      <c r="I15" s="7">
+        <v>70005</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>252</v>
+      </c>
+      <c r="N15" s="7">
+        <v>264540</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDA9540-265D-4E63-AA9A-7198C0605D9B}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>201</v>
+      </c>
+      <c r="D4" s="7">
+        <v>161593</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="7">
+        <v>52</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32050</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M4" s="7">
+        <v>253</v>
+      </c>
+      <c r="N4" s="7">
+        <v>193643</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>187</v>
+      </c>
+      <c r="D5" s="7">
+        <v>139319</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="7">
+        <v>146</v>
+      </c>
+      <c r="I5" s="7">
+        <v>85109</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="7">
+        <v>333</v>
+      </c>
+      <c r="N5" s="7">
+        <v>224428</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>388</v>
+      </c>
+      <c r="D6" s="7">
+        <v>300912</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>198</v>
+      </c>
+      <c r="I6" s="7">
+        <v>117159</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>586</v>
+      </c>
+      <c r="N6" s="7">
+        <v>418071</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>286</v>
+      </c>
+      <c r="D7" s="7">
+        <v>277869</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="7">
+        <v>219</v>
+      </c>
+      <c r="I7" s="7">
+        <v>161820</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="7">
+        <v>505</v>
+      </c>
+      <c r="N7" s="7">
+        <v>439688</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>612</v>
+      </c>
+      <c r="D8" s="7">
+        <v>850992</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="7">
+        <v>737</v>
+      </c>
+      <c r="I8" s="7">
+        <v>497413</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1349</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1348407</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>898</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1128861</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>956</v>
+      </c>
+      <c r="I9" s="7">
+        <v>659233</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1788095</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7">
+        <v>47887</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="7">
+        <v>60</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40554</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M10" s="7">
+        <v>117</v>
+      </c>
+      <c r="N10" s="7">
+        <v>88442</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>205</v>
+      </c>
+      <c r="D11" s="7">
+        <v>189268</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="7">
+        <v>234</v>
+      </c>
+      <c r="I11" s="7">
+        <v>152656</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="M11" s="7">
+        <v>439</v>
+      </c>
+      <c r="N11" s="7">
+        <v>341923</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>262</v>
+      </c>
+      <c r="D12" s="7">
+        <v>237155</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>294</v>
+      </c>
+      <c r="I12" s="7">
+        <v>193210</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
+        <v>556</v>
+      </c>
+      <c r="N12" s="7">
+        <v>430365</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>544</v>
+      </c>
+      <c r="D13" s="7">
+        <v>487349</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H13" s="7">
+        <v>331</v>
+      </c>
+      <c r="I13" s="7">
+        <v>234424</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M13" s="7">
+        <v>875</v>
+      </c>
+      <c r="N13" s="7">
+        <v>721773</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1179579</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1117</v>
+      </c>
+      <c r="I14" s="7">
+        <v>735179</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2121</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1914757</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1548</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1666928</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1448</v>
+      </c>
+      <c r="I15" s="7">
+        <v>969603</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2996</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2636530</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
